--- a/Archivos/Imagenes para pruebas/Pruebas.xlsx
+++ b/Archivos/Imagenes para pruebas/Pruebas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://estudianteccr-my.sharepoint.com/personal/david_qs_estudiantec_cr/Documents/Documentos/TEC/2020 - 2S/Sistemas de Visión Gr. 1/Tareas Parciales/Tarea 4/ASV-H4-SA/Archivos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LordSeraphin\Desktop\Imagenes para pruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="116" documentId="8_{EA376BF2-4F08-473E-9452-55525510517C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D06EED5D-5EB1-4416-867A-015050BF3A99}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1B3B17-ACA9-4B60-B159-F223B87A83BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{62576856-A43B-4B79-BD91-BD85B9A4853D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{62576856-A43B-4B79-BD91-BD85B9A4853D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
   <si>
     <t>Rango de grados distintos</t>
   </si>
@@ -237,8 +236,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8086725" y="643891"/>
-          <a:ext cx="5502116" cy="1983449"/>
+          <a:off x="7882890" y="659131"/>
+          <a:ext cx="5505926" cy="2105369"/>
           <a:chOff x="6637020" y="2750821"/>
           <a:chExt cx="5509736" cy="2012024"/>
         </a:xfrm>
@@ -350,7 +349,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -649,21 +648,21 @@
   <dimension ref="C3:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" customWidth="1"/>
-    <col min="9" max="9" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:9" ht="30" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
@@ -683,7 +682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C4" s="2">
         <v>1</v>
       </c>
@@ -703,7 +702,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C5" s="2">
         <v>2</v>
       </c>
@@ -718,7 +717,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C6" s="2">
         <v>3</v>
       </c>
@@ -739,7 +738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C7" s="2">
         <v>4</v>
       </c>
@@ -758,7 +757,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C8" s="1">
         <v>5</v>
       </c>
@@ -774,7 +773,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C9" s="1">
         <v>6</v>
       </c>
@@ -793,7 +792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C10" s="1">
         <v>7</v>
       </c>
@@ -813,7 +812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C11" s="1">
         <v>8</v>
       </c>
@@ -829,7 +828,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C12" s="1">
         <v>9</v>
       </c>
@@ -845,7 +844,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C13" s="1">
         <v>10</v>
       </c>
@@ -861,7 +860,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C14" s="2">
         <v>11</v>
       </c>
@@ -879,7 +878,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C15" s="2">
         <v>12</v>
       </c>
@@ -895,7 +894,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C16" s="2">
         <v>13</v>
       </c>
@@ -911,7 +910,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" s="2">
         <v>14</v>
       </c>
@@ -929,7 +928,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C18" s="1">
         <v>15</v>
       </c>
@@ -945,7 +944,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C19" s="1">
         <v>16</v>
       </c>
@@ -961,7 +960,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C20" s="1">
         <v>17</v>
       </c>
@@ -977,7 +976,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C21" s="1">
         <v>18</v>
       </c>
@@ -993,7 +992,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C22" s="1">
         <v>19</v>
       </c>
@@ -1009,7 +1008,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C23" s="1">
         <v>20</v>
       </c>
@@ -1020,12 +1019,14 @@
       <c r="E23" s="1">
         <v>10</v>
       </c>
-      <c r="F23" s="1"/>
+      <c r="F23" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="G23" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C24" s="2">
         <v>21</v>
       </c>
@@ -1041,7 +1042,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C25" s="2">
         <v>22</v>
       </c>
@@ -1059,7 +1060,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C26" s="2">
         <v>23</v>
       </c>
@@ -1075,7 +1076,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C27" s="2">
         <v>24</v>
       </c>
@@ -1093,7 +1094,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G30" t="s">
         <v>15</v>
       </c>

--- a/Archivos/Imagenes para pruebas/Pruebas.xlsx
+++ b/Archivos/Imagenes para pruebas/Pruebas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LordSeraphin\Desktop\Imagenes para pruebas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LordSeraphin\Documents\GitHub\ASV-H4-SA\Archivos\Imagenes para pruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1B3B17-ACA9-4B60-B159-F223B87A83BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A585CD09-A3BD-4BB0-9248-857EC87CFEC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{62576856-A43B-4B79-BD91-BD85B9A4853D}"/>
   </bookViews>
@@ -65,9 +65,6 @@
     <t>Si 6</t>
   </si>
   <si>
-    <t>Si 7</t>
-  </si>
-  <si>
     <t>Si 10</t>
   </si>
   <si>
@@ -81,6 +78,9 @@
   </si>
   <si>
     <t>a=listo</t>
+  </si>
+  <si>
+    <t>Si 4</t>
   </si>
 </sst>
 </file>
@@ -648,7 +648,7 @@
   <dimension ref="C3:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,7 +696,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4">
         <v>180</v>
@@ -714,7 +714,7 @@
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.25">
@@ -729,10 +729,10 @@
         <v>3</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I6" t="s">
         <v>1</v>
@@ -751,7 +751,7 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I7">
         <v>12</v>
@@ -770,7 +770,7 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.25">
@@ -786,7 +786,7 @@
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I9" t="s">
         <v>2</v>
@@ -805,7 +805,7 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I10">
         <f>+I4/I7</f>
@@ -825,7 +825,7 @@
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.25">
@@ -841,7 +841,7 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.25">
@@ -857,7 +857,7 @@
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.25">
@@ -872,10 +872,10 @@
         <v>1</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.25">
@@ -891,7 +891,7 @@
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.25">
@@ -907,7 +907,7 @@
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.25">
@@ -922,10 +922,10 @@
         <v>4</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.25">
@@ -941,7 +941,7 @@
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.25">
@@ -957,7 +957,7 @@
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.25">
@@ -973,7 +973,7 @@
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.25">
@@ -989,7 +989,7 @@
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.25">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.25">
@@ -1020,10 +1020,10 @@
         <v>10</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.25">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.25">
@@ -1057,7 +1057,7 @@
         <v>9</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.25">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.25">
@@ -1088,15 +1088,15 @@
         <v>4</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
